--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1148.405877841561</v>
+        <v>1251.83569918677</v>
       </c>
       <c r="AB2" t="n">
-        <v>1571.299586154462</v>
+        <v>1712.816830720655</v>
       </c>
       <c r="AC2" t="n">
-        <v>1421.3369589847</v>
+        <v>1549.347996350196</v>
       </c>
       <c r="AD2" t="n">
-        <v>1148405.877841561</v>
+        <v>1251835.69918677</v>
       </c>
       <c r="AE2" t="n">
-        <v>1571299.586154462</v>
+        <v>1712816.830720655</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.293399663508621e-06</v>
+        <v>1.864648268242833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.49609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1421336.9589847</v>
+        <v>1549347.996350196</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>545.6355387987417</v>
+        <v>614.6171403080378</v>
       </c>
       <c r="AB3" t="n">
-        <v>746.5626159255128</v>
+        <v>840.9462863640084</v>
       </c>
       <c r="AC3" t="n">
-        <v>675.3117276687934</v>
+        <v>760.6875530689525</v>
       </c>
       <c r="AD3" t="n">
-        <v>545635.5387987416</v>
+        <v>614617.1403080379</v>
       </c>
       <c r="AE3" t="n">
-        <v>746562.6159255127</v>
+        <v>840946.2863640084</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03472597032003e-06</v>
+        <v>2.933392024097023e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.93815104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>675311.7276687934</v>
+        <v>760687.5530689525</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>434.9525654748649</v>
+        <v>486.7528617563169</v>
       </c>
       <c r="AB4" t="n">
-        <v>595.1212888356255</v>
+        <v>665.996739475694</v>
       </c>
       <c r="AC4" t="n">
-        <v>538.3237482871275</v>
+        <v>602.4349453924275</v>
       </c>
       <c r="AD4" t="n">
-        <v>434952.5654748649</v>
+        <v>486752.8617563169</v>
       </c>
       <c r="AE4" t="n">
-        <v>595121.2888356255</v>
+        <v>665996.739475694</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.327055021532438e-06</v>
+        <v>3.354832414472271e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.05989583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>538323.7482871275</v>
+        <v>602434.9453924275</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.8803641251486</v>
+        <v>437.5953195520291</v>
       </c>
       <c r="AB5" t="n">
-        <v>527.9785380362122</v>
+        <v>598.737221554083</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.5890073885676</v>
+        <v>541.5945814619288</v>
       </c>
       <c r="AD5" t="n">
-        <v>385880.3641251486</v>
+        <v>437595.3195520291</v>
       </c>
       <c r="AE5" t="n">
-        <v>527978.5380362122</v>
+        <v>598737.2215540831</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.444696223872787e-06</v>
+        <v>3.524431549532255e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.431640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>477589.0073885676</v>
+        <v>541594.5814619288</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>386.8702344489065</v>
+        <v>438.5851898757869</v>
       </c>
       <c r="AB6" t="n">
-        <v>529.3329222831743</v>
+        <v>600.091605801045</v>
       </c>
       <c r="AC6" t="n">
-        <v>478.8141311038899</v>
+        <v>542.819705177251</v>
       </c>
       <c r="AD6" t="n">
-        <v>386870.2344489065</v>
+        <v>438585.1898757869</v>
       </c>
       <c r="AE6" t="n">
-        <v>529332.9222831744</v>
+        <v>600091.6058010451</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.445443152141615e-06</v>
+        <v>3.525508369437398e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.42838541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>478814.1311038899</v>
+        <v>542819.705177251</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>796.64441076642</v>
+        <v>880.8186463164504</v>
       </c>
       <c r="AB2" t="n">
-        <v>1090.004028281577</v>
+        <v>1205.174930866315</v>
       </c>
       <c r="AC2" t="n">
-        <v>985.9755736526441</v>
+        <v>1090.154726938072</v>
       </c>
       <c r="AD2" t="n">
-        <v>796644.4107664201</v>
+        <v>880818.6463164504</v>
       </c>
       <c r="AE2" t="n">
-        <v>1090004.028281577</v>
+        <v>1205174.930866315</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.595984676197789e-06</v>
+        <v>2.336461526681257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.70052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>985975.5736526442</v>
+        <v>1090154.726938072</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>431.4137106148665</v>
+        <v>490.3356754998877</v>
       </c>
       <c r="AB3" t="n">
-        <v>590.279271492918</v>
+        <v>670.8989033022345</v>
       </c>
       <c r="AC3" t="n">
-        <v>533.9438462837941</v>
+        <v>606.8692535835931</v>
       </c>
       <c r="AD3" t="n">
-        <v>431413.7106148665</v>
+        <v>490335.6754998877</v>
       </c>
       <c r="AE3" t="n">
-        <v>590279.271492918</v>
+        <v>670898.9033022346</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.292465280171539e-06</v>
+        <v>3.356082930027816e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.71419270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>533943.846283794</v>
+        <v>606869.2535835932</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>362.9462494695181</v>
+        <v>421.7828734999678</v>
       </c>
       <c r="AB4" t="n">
-        <v>496.599070582648</v>
+        <v>577.1019352697668</v>
       </c>
       <c r="AC4" t="n">
-        <v>449.2043522674123</v>
+        <v>522.0241365352726</v>
       </c>
       <c r="AD4" t="n">
-        <v>362946.2494695181</v>
+        <v>421782.8734999677</v>
       </c>
       <c r="AE4" t="n">
-        <v>496599.070582648</v>
+        <v>577101.9352697668</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.492494586901485e-06</v>
+        <v>3.648918310187396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.61393229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>449204.3522674124</v>
+        <v>522024.1365352727</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>364.2951116016899</v>
+        <v>423.1317356321395</v>
       </c>
       <c r="AB5" t="n">
-        <v>498.4446432594828</v>
+        <v>578.9475079466016</v>
       </c>
       <c r="AC5" t="n">
-        <v>450.8737860782475</v>
+        <v>523.6935703461079</v>
       </c>
       <c r="AD5" t="n">
-        <v>364295.1116016899</v>
+        <v>423131.7356321395</v>
       </c>
       <c r="AE5" t="n">
-        <v>498444.6432594828</v>
+        <v>578947.5079466016</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.49239800104599e-06</v>
+        <v>3.64877691212841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.61393229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>450873.7860782475</v>
+        <v>523693.5703461079</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.2631223561187</v>
+        <v>387.2307505208943</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.0393536038574</v>
+        <v>529.8261962777145</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.5654223125602</v>
+        <v>479.2603277207056</v>
       </c>
       <c r="AD2" t="n">
-        <v>325263.1223561188</v>
+        <v>387230.7505208943</v>
       </c>
       <c r="AE2" t="n">
-        <v>445039.3536038573</v>
+        <v>529826.1962777146</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.511498170156085e-06</v>
+        <v>3.885597670771813e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.96809895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>402565.4223125602</v>
+        <v>479260.3277207056</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>327.1533598071245</v>
+        <v>389.1209879719001</v>
       </c>
       <c r="AB3" t="n">
-        <v>447.6256598757143</v>
+        <v>532.4125025495715</v>
       </c>
       <c r="AC3" t="n">
-        <v>404.9048951437348</v>
+        <v>481.5998005518802</v>
       </c>
       <c r="AD3" t="n">
-        <v>327153.3598071245</v>
+        <v>389120.9879719001</v>
       </c>
       <c r="AE3" t="n">
-        <v>447625.6598757143</v>
+        <v>532412.5025495716</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.511282618667422e-06</v>
+        <v>3.885264186012703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.97135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>404904.8951437348</v>
+        <v>481599.8005518802</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>442.3467957160417</v>
+        <v>506.3479276094062</v>
       </c>
       <c r="AB2" t="n">
-        <v>605.2384008620191</v>
+        <v>692.8075730491846</v>
       </c>
       <c r="AC2" t="n">
-        <v>547.475297341178</v>
+        <v>626.6869906389056</v>
       </c>
       <c r="AD2" t="n">
-        <v>442346.7957160417</v>
+        <v>506347.9276094062</v>
       </c>
       <c r="AE2" t="n">
-        <v>605238.4008620192</v>
+        <v>692807.5730491846</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.201408404793491e-06</v>
+        <v>3.326975244236268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.24739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>547475.2973411781</v>
+        <v>626686.9906389057</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.2814718452666</v>
+        <v>395.2611382268865</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.2198778208411</v>
+        <v>540.8137270127552</v>
       </c>
       <c r="AC3" t="n">
-        <v>419.91538421831</v>
+        <v>489.1992239434902</v>
       </c>
       <c r="AD3" t="n">
-        <v>339281.4718452666</v>
+        <v>395261.1382268865</v>
       </c>
       <c r="AE3" t="n">
-        <v>464219.8778208412</v>
+        <v>540813.7270127552</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.538976252542724e-06</v>
+        <v>3.837139496478764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.21940104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>419915.3842183099</v>
+        <v>489199.2239434902</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.6610172985339</v>
+        <v>389.0461695410916</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.6885033686149</v>
+        <v>532.3101326717832</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.7708637488921</v>
+        <v>481.5072007115509</v>
       </c>
       <c r="AD2" t="n">
-        <v>328661.0172985339</v>
+        <v>389046.1695410915</v>
       </c>
       <c r="AE2" t="n">
-        <v>449688.5033686149</v>
+        <v>532310.1326717832</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.429083618614232e-06</v>
+        <v>3.839137486757572e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>406770.863748892</v>
+        <v>481507.2007115509</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>873.265438379898</v>
+        <v>966.3961067021698</v>
       </c>
       <c r="AB2" t="n">
-        <v>1194.840298543507</v>
+        <v>1322.265787577153</v>
       </c>
       <c r="AC2" t="n">
-        <v>1080.806417419406</v>
+        <v>1196.070596622477</v>
       </c>
       <c r="AD2" t="n">
-        <v>873265.438379898</v>
+        <v>966396.1067021699</v>
       </c>
       <c r="AE2" t="n">
-        <v>1194840.298543507</v>
+        <v>1322265.787577153</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.515506762268407e-06</v>
+        <v>2.209436529459197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.55989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1080806.417419405</v>
+        <v>1196070.596622477</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>456.1382286468507</v>
+        <v>523.7610081572301</v>
       </c>
       <c r="AB3" t="n">
-        <v>624.1084478330317</v>
+        <v>716.6329180656136</v>
       </c>
       <c r="AC3" t="n">
-        <v>564.5444135135544</v>
+        <v>648.2384781660481</v>
       </c>
       <c r="AD3" t="n">
-        <v>456138.2286468507</v>
+        <v>523761.00815723</v>
       </c>
       <c r="AE3" t="n">
-        <v>624108.4478330318</v>
+        <v>716632.9180656136</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.2258317596027e-06</v>
+        <v>3.245009603741816e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.99739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>564544.4135135545</v>
+        <v>648238.4781660482</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.4180997436057</v>
+        <v>429.6520374561164</v>
       </c>
       <c r="AB4" t="n">
-        <v>506.8223857624241</v>
+        <v>587.8688725575814</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.4519685949436</v>
+        <v>531.7634924398299</v>
       </c>
       <c r="AD4" t="n">
-        <v>370418.0997436057</v>
+        <v>429652.0374561164</v>
       </c>
       <c r="AE4" t="n">
-        <v>506822.3857624241</v>
+        <v>587868.8725575814</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.474890598447038e-06</v>
+        <v>3.608109070024443e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.59114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>458451.9685949436</v>
+        <v>531763.4924398299</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>369.7838498903594</v>
+        <v>429.01778760287</v>
       </c>
       <c r="AB5" t="n">
-        <v>505.954577132084</v>
+        <v>587.0010639272411</v>
       </c>
       <c r="AC5" t="n">
-        <v>457.666982402306</v>
+        <v>530.9785062471922</v>
       </c>
       <c r="AD5" t="n">
-        <v>369783.8498903594</v>
+        <v>429017.78760287</v>
       </c>
       <c r="AE5" t="n">
-        <v>505954.5771320839</v>
+        <v>587001.0639272411</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.480729410579822e-06</v>
+        <v>3.616621394176341e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.55859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>457666.982402306</v>
+        <v>530978.5062471922</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.3690164816658</v>
+        <v>404.1165926019168</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.6031720207865</v>
+        <v>552.9301503637461</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.5484131472429</v>
+        <v>500.1592728553695</v>
       </c>
       <c r="AD2" t="n">
-        <v>337369.0164816658</v>
+        <v>404116.5926019168</v>
       </c>
       <c r="AE2" t="n">
-        <v>461603.1720207866</v>
+        <v>552930.1503637461</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.342003422415046e-06</v>
+        <v>3.752439613874632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.92122395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>417548.4131472429</v>
+        <v>500159.2728553695</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>603.7310022980282</v>
+        <v>677.6593254951921</v>
       </c>
       <c r="AB2" t="n">
-        <v>826.0513920761994</v>
+        <v>927.2033853619942</v>
       </c>
       <c r="AC2" t="n">
-        <v>747.2142065868566</v>
+        <v>838.7123956011693</v>
       </c>
       <c r="AD2" t="n">
-        <v>603731.0022980282</v>
+        <v>677659.3254951921</v>
       </c>
       <c r="AE2" t="n">
-        <v>826051.3920761994</v>
+        <v>927203.3853619942</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.866870641793786e-06</v>
+        <v>2.772010172388235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.35026041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>747214.2065868565</v>
+        <v>838712.3956011693</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>349.9800324385508</v>
+        <v>407.5271813377895</v>
       </c>
       <c r="AB3" t="n">
-        <v>478.8581204117548</v>
+        <v>557.5966683367229</v>
       </c>
       <c r="AC3" t="n">
-        <v>433.1565734812493</v>
+        <v>504.3804249025046</v>
       </c>
       <c r="AD3" t="n">
-        <v>349980.0324385508</v>
+        <v>407527.1813377895</v>
       </c>
       <c r="AE3" t="n">
-        <v>478858.1204117548</v>
+        <v>557596.6683367229</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.510224517017498e-06</v>
+        <v>3.727289797361047e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.90364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>433156.5734812493</v>
+        <v>504380.4249025045</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.6279810442051</v>
+        <v>405.1751299434438</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.6399399288269</v>
+        <v>554.3784878537949</v>
       </c>
       <c r="AC4" t="n">
-        <v>430.2455316268672</v>
+        <v>501.4693830481225</v>
       </c>
       <c r="AD4" t="n">
-        <v>347627.9810442051</v>
+        <v>405175.1299434438</v>
       </c>
       <c r="AE4" t="n">
-        <v>475639.9399288269</v>
+        <v>554378.4878537949</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.523360280595151e-06</v>
+        <v>3.746794346548427e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.83854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>430245.5316268672</v>
+        <v>501469.3830481225</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>725.7523909373864</v>
+        <v>809.2521112992819</v>
       </c>
       <c r="AB2" t="n">
-        <v>993.0064392163086</v>
+        <v>1107.25444036313</v>
       </c>
       <c r="AC2" t="n">
-        <v>898.235298350794</v>
+        <v>1001.57963061624</v>
       </c>
       <c r="AD2" t="n">
-        <v>725752.3909373864</v>
+        <v>809252.1112992818</v>
       </c>
       <c r="AE2" t="n">
-        <v>993006.4392163086</v>
+        <v>1107254.44036313</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.679786288238121e-06</v>
+        <v>2.470029114105691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.89322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>898235.298350794</v>
+        <v>1001579.63061624</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.6908186466074</v>
+        <v>464.0297692975421</v>
       </c>
       <c r="AB3" t="n">
-        <v>555.0840758880435</v>
+        <v>634.9060019015101</v>
       </c>
       <c r="AC3" t="n">
-        <v>502.1076307506814</v>
+        <v>574.3114641761994</v>
       </c>
       <c r="AD3" t="n">
-        <v>405690.8186466074</v>
+        <v>464029.7692975422</v>
       </c>
       <c r="AE3" t="n">
-        <v>555084.0758880435</v>
+        <v>634906.0019015101</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.3648442439591e-06</v>
+        <v>3.477367432872035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.42122395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>502107.6307506814</v>
+        <v>574311.4641761994</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.4064370706803</v>
+        <v>416.8306390676356</v>
       </c>
       <c r="AB4" t="n">
-        <v>490.3874989761703</v>
+        <v>570.326069642286</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.5856043370614</v>
+        <v>515.8949500132917</v>
       </c>
       <c r="AD4" t="n">
-        <v>358406.4370706803</v>
+        <v>416830.6390676356</v>
       </c>
       <c r="AE4" t="n">
-        <v>490387.4989761703</v>
+        <v>570326.069642286</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.500763798510061e-06</v>
+        <v>3.677229319629832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.69205729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>443585.6043370614</v>
+        <v>515894.9500132917</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1049.117259151039</v>
+        <v>1151.845268595825</v>
       </c>
       <c r="AB2" t="n">
-        <v>1435.44851775738</v>
+        <v>1576.005512319658</v>
       </c>
       <c r="AC2" t="n">
-        <v>1298.451325887263</v>
+        <v>1425.593758161498</v>
       </c>
       <c r="AD2" t="n">
-        <v>1049117.259151039</v>
+        <v>1151845.268595825</v>
       </c>
       <c r="AE2" t="n">
-        <v>1435448.51775738</v>
+        <v>1576005.512319658</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.363782861220064e-06</v>
+        <v>1.973083548674722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.46419270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1298451.325887263</v>
+        <v>1425593.758161498</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>517.6596381169156</v>
+        <v>586.2302589289774</v>
       </c>
       <c r="AB3" t="n">
-        <v>708.2847544030066</v>
+        <v>802.1061029203572</v>
       </c>
       <c r="AC3" t="n">
-        <v>640.6870515266791</v>
+        <v>725.5542222206236</v>
       </c>
       <c r="AD3" t="n">
-        <v>517659.6381169156</v>
+        <v>586230.2589289774</v>
       </c>
       <c r="AE3" t="n">
-        <v>708284.7544030065</v>
+        <v>802106.1029203573</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.097106721176364e-06</v>
+        <v>3.034036347741276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>640687.0515266791</v>
+        <v>725554.2222206236</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.1425044870477</v>
+        <v>464.1311300907803</v>
       </c>
       <c r="AB4" t="n">
-        <v>552.9656041481339</v>
+        <v>635.0446882105412</v>
       </c>
       <c r="AC4" t="n">
-        <v>500.191342980335</v>
+        <v>574.4369144585442</v>
       </c>
       <c r="AD4" t="n">
-        <v>404142.5044870477</v>
+        <v>464131.1300907803</v>
       </c>
       <c r="AE4" t="n">
-        <v>552965.6041481339</v>
+        <v>635044.6882105411</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.386220029413756e-06</v>
+        <v>3.452317533410226e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.83854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>500191.3429803351</v>
+        <v>574436.9144585441</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>382.7934769909889</v>
+        <v>434.3707890955357</v>
       </c>
       <c r="AB5" t="n">
-        <v>523.754922875406</v>
+        <v>594.325276727265</v>
       </c>
       <c r="AC5" t="n">
-        <v>473.7684881308276</v>
+        <v>537.6037064571788</v>
       </c>
       <c r="AD5" t="n">
-        <v>382793.4769909889</v>
+        <v>434370.7890955356</v>
       </c>
       <c r="AE5" t="n">
-        <v>523754.922875406</v>
+        <v>594325.276727265</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.447675429895206e-06</v>
+        <v>3.541229517212903e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.51627604166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>473768.4881308276</v>
+        <v>537603.7064571788</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.4705630130583</v>
+        <v>561.1621644027055</v>
       </c>
       <c r="AB2" t="n">
-        <v>668.346974114799</v>
+        <v>767.8068300632339</v>
       </c>
       <c r="AC2" t="n">
-        <v>604.5608769361514</v>
+        <v>694.5284238256522</v>
       </c>
       <c r="AD2" t="n">
-        <v>488470.5630130583</v>
+        <v>561162.1644027055</v>
       </c>
       <c r="AE2" t="n">
-        <v>668346.9741147989</v>
+        <v>767806.8300632339</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.079372363376671e-06</v>
+        <v>3.12256148493195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>604560.8769361514</v>
+        <v>694528.4238256522</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>343.7819948130151</v>
+        <v>392.3569397207597</v>
       </c>
       <c r="AB3" t="n">
-        <v>470.3776918943751</v>
+        <v>536.840074492477</v>
       </c>
       <c r="AC3" t="n">
-        <v>425.4855051592122</v>
+        <v>485.6048112426909</v>
       </c>
       <c r="AD3" t="n">
-        <v>343781.9948130151</v>
+        <v>392356.9397207598</v>
       </c>
       <c r="AE3" t="n">
-        <v>470377.6918943751</v>
+        <v>536840.074492477</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.53784632666733e-06</v>
+        <v>3.811044781541095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.05989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>425485.5051592122</v>
+        <v>485604.8112426909</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.1991320431649</v>
+        <v>404.8939862706652</v>
       </c>
       <c r="AB2" t="n">
-        <v>468.2119492216891</v>
+        <v>553.9938146775158</v>
       </c>
       <c r="AC2" t="n">
-        <v>423.5264579275683</v>
+        <v>501.1214225398954</v>
       </c>
       <c r="AD2" t="n">
-        <v>342199.1320431649</v>
+        <v>404893.9862706652</v>
       </c>
       <c r="AE2" t="n">
-        <v>468211.9492216891</v>
+        <v>553993.8146775159</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.467750916785787e-06</v>
+        <v>3.784904945670101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.99088541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>423526.4579275683</v>
+        <v>501121.4225398954</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>330.8780453198566</v>
+        <v>385.8853892644197</v>
       </c>
       <c r="AB3" t="n">
-        <v>452.721938915762</v>
+        <v>527.9854136534564</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.5147924648728</v>
+        <v>477.5952268065519</v>
       </c>
       <c r="AD3" t="n">
-        <v>330878.0453198566</v>
+        <v>385885.3892644197</v>
       </c>
       <c r="AE3" t="n">
-        <v>452721.938915762</v>
+        <v>527985.4136534564</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.526931121855688e-06</v>
+        <v>3.875672392794217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.662109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>409514.7924648728</v>
+        <v>477595.2268065519</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.5998781109588</v>
+        <v>384.192447395578</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.3413382686769</v>
+        <v>525.6690559011831</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.170515809369</v>
+        <v>475.4999389871272</v>
       </c>
       <c r="AD2" t="n">
-        <v>330599.8781109588</v>
+        <v>384192.447395578</v>
       </c>
       <c r="AE2" t="n">
-        <v>452341.3382686768</v>
+        <v>525669.0559011832</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.478499801445011e-06</v>
+        <v>3.872607050443229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.40755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>409170.515809369</v>
+        <v>475499.9389871272</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>359.4176010275106</v>
+        <v>425.0434064599928</v>
       </c>
       <c r="AB2" t="n">
-        <v>491.7710181113108</v>
+        <v>581.5631403102353</v>
       </c>
       <c r="AC2" t="n">
-        <v>444.8370823477253</v>
+        <v>526.0595704280194</v>
       </c>
       <c r="AD2" t="n">
-        <v>359417.6010275105</v>
+        <v>425043.4064599928</v>
       </c>
       <c r="AE2" t="n">
-        <v>491771.0181113108</v>
+        <v>581563.1403102353</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.183870399134255e-06</v>
+        <v>3.559001467243112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>444837.0823477253</v>
+        <v>526059.5704280194</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>666.9500966530635</v>
+        <v>741.5396060600337</v>
       </c>
       <c r="AB2" t="n">
-        <v>912.5505460023616</v>
+        <v>1014.60720342989</v>
       </c>
       <c r="AC2" t="n">
-        <v>825.458002664631</v>
+        <v>917.7745159446945</v>
       </c>
       <c r="AD2" t="n">
-        <v>666950.0966530635</v>
+        <v>741539.6060600338</v>
       </c>
       <c r="AE2" t="n">
-        <v>912550.5460023616</v>
+        <v>1014607.20342989</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.770314383323076e-06</v>
+        <v>2.615428488327092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.10872395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>825458.002664631</v>
+        <v>917774.5159446945</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>378.1878372269705</v>
+        <v>427.9711005708487</v>
       </c>
       <c r="AB3" t="n">
-        <v>517.4532833637896</v>
+        <v>585.5689405534566</v>
       </c>
       <c r="AC3" t="n">
-        <v>468.0682682497933</v>
+        <v>529.6830627182037</v>
       </c>
       <c r="AD3" t="n">
-        <v>378187.8372269705</v>
+        <v>427971.1005708487</v>
       </c>
       <c r="AE3" t="n">
-        <v>517453.2833637897</v>
+        <v>585568.9405534567</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449606179293626e-06</v>
+        <v>3.619001148530701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.0859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>468068.2682497933</v>
+        <v>529683.0627182038</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>352.9584776604265</v>
+        <v>410.9535062804032</v>
       </c>
       <c r="AB4" t="n">
-        <v>482.9333605640546</v>
+        <v>562.2847172819953</v>
       </c>
       <c r="AC4" t="n">
-        <v>436.8428784330491</v>
+        <v>508.6210530361581</v>
       </c>
       <c r="AD4" t="n">
-        <v>352958.4776604265</v>
+        <v>410953.5062804032</v>
       </c>
       <c r="AE4" t="n">
-        <v>482933.3605640546</v>
+        <v>562284.7172819953</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.512237316179284e-06</v>
+        <v>3.7115311879464e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>436842.8784330491</v>
+        <v>508621.0530361581</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>957.272075894091</v>
+        <v>1050.920294941272</v>
       </c>
       <c r="AB2" t="n">
-        <v>1309.781886101709</v>
+        <v>1437.915510869902</v>
       </c>
       <c r="AC2" t="n">
-        <v>1184.778141182584</v>
+        <v>1300.682872639572</v>
       </c>
       <c r="AD2" t="n">
-        <v>957272.075894091</v>
+        <v>1050920.294941272</v>
       </c>
       <c r="AE2" t="n">
-        <v>1309781.886101709</v>
+        <v>1437915.510869902</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.43804208313145e-06</v>
+        <v>2.088280156293808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.48111979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1184778.141182584</v>
+        <v>1300682.872639572</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.5625593708904</v>
+        <v>551.1801879098164</v>
       </c>
       <c r="AB3" t="n">
-        <v>672.5775799408368</v>
+        <v>754.1490494519401</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.3877196798447</v>
+        <v>682.1741226270849</v>
       </c>
       <c r="AD3" t="n">
-        <v>491562.5593708904</v>
+        <v>551180.1879098164</v>
       </c>
       <c r="AE3" t="n">
-        <v>672577.5799408368</v>
+        <v>754149.0494519401</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.158581448131919e-06</v>
+        <v>3.13462509668835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.30989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>608387.7196798447</v>
+        <v>682174.1226270848</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>382.2291548995431</v>
+        <v>441.846693929918</v>
       </c>
       <c r="AB4" t="n">
-        <v>522.9827924937559</v>
+        <v>604.5541395353109</v>
       </c>
       <c r="AC4" t="n">
-        <v>473.0700487891104</v>
+        <v>546.8563409551241</v>
       </c>
       <c r="AD4" t="n">
-        <v>382229.154899543</v>
+        <v>441846.693929918</v>
       </c>
       <c r="AE4" t="n">
-        <v>522982.792493756</v>
+        <v>604554.1395353109</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.446873110303843e-06</v>
+        <v>3.553273315958548e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.62369791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>473070.0487891104</v>
+        <v>546856.3409551241</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>375.9861971840485</v>
+        <v>427.24543508286</v>
       </c>
       <c r="AB5" t="n">
-        <v>514.4409023275601</v>
+        <v>584.5760530186885</v>
       </c>
       <c r="AC5" t="n">
-        <v>465.3433846317582</v>
+        <v>528.7849349762275</v>
       </c>
       <c r="AD5" t="n">
-        <v>375986.1971840485</v>
+        <v>427245.4350828599</v>
       </c>
       <c r="AE5" t="n">
-        <v>514440.9023275601</v>
+        <v>584576.0530186886</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.465567467594122e-06</v>
+        <v>3.580420682382586e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.529296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>465343.3846317582</v>
+        <v>528784.9349762276</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.4946592597378</v>
+        <v>479.6513884709</v>
       </c>
       <c r="AB2" t="n">
-        <v>558.9204143116463</v>
+        <v>656.2801904316966</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.5778344194704</v>
+        <v>593.6457301519268</v>
       </c>
       <c r="AD2" t="n">
-        <v>408494.6592597378</v>
+        <v>479651.3884709</v>
       </c>
       <c r="AE2" t="n">
-        <v>558920.4143116463</v>
+        <v>656280.1904316966</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.885721554086556e-06</v>
+        <v>3.143385481178997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.04817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>505577.8344194704</v>
+        <v>593645.7301519269</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>391.6335726158268</v>
+        <v>455.0885595677821</v>
       </c>
       <c r="AB2" t="n">
-        <v>535.8503317068033</v>
+        <v>622.6722442909186</v>
       </c>
       <c r="AC2" t="n">
-        <v>484.7095281193693</v>
+        <v>563.2452792217762</v>
       </c>
       <c r="AD2" t="n">
-        <v>391633.5726158268</v>
+        <v>455088.5595677821</v>
       </c>
       <c r="AE2" t="n">
-        <v>535850.3317068033</v>
+        <v>622672.2442909186</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.328523719066617e-06</v>
+        <v>3.543795666883856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>484709.5281193693</v>
+        <v>563245.2792217762</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.5088004668017</v>
+        <v>389.9359950969207</v>
       </c>
       <c r="AB3" t="n">
-        <v>457.6896982854246</v>
+        <v>533.5276312536015</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.0084358525889</v>
+        <v>482.6085029374905</v>
       </c>
       <c r="AD3" t="n">
-        <v>334508.8004668017</v>
+        <v>389935.9950969207</v>
       </c>
       <c r="AE3" t="n">
-        <v>457689.6982854246</v>
+        <v>533527.6312536015</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.538487998761627e-06</v>
+        <v>3.863341694476749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.40169270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>414008.435852589</v>
+        <v>482608.5029374905</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>544.664189149182</v>
+        <v>618.074838671891</v>
       </c>
       <c r="AB2" t="n">
-        <v>745.233572482063</v>
+        <v>845.677261808318</v>
       </c>
       <c r="AC2" t="n">
-        <v>674.1095262662623</v>
+        <v>764.9670108568231</v>
       </c>
       <c r="AD2" t="n">
-        <v>544664.1891491819</v>
+        <v>618074.838671891</v>
       </c>
       <c r="AE2" t="n">
-        <v>745233.572482063</v>
+        <v>845677.261808318</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.969383513342635e-06</v>
+        <v>2.940113707698563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.630859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>674109.5262662623</v>
+        <v>764967.0108568231</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.6417812254594</v>
+        <v>397.7199884421061</v>
       </c>
       <c r="AB3" t="n">
-        <v>466.0811131274353</v>
+        <v>544.1780343540343</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.5989858395029</v>
+        <v>492.2424465139525</v>
       </c>
       <c r="AD3" t="n">
-        <v>340641.7812254594</v>
+        <v>397719.9884421061</v>
       </c>
       <c r="AE3" t="n">
-        <v>466081.1131274353</v>
+        <v>544178.0343540342</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.532165139651922e-06</v>
+        <v>3.780296416014426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.93619791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>421598.9858395029</v>
+        <v>492242.4465139525</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.1913108508618</v>
+        <v>399.2695180675086</v>
       </c>
       <c r="AB4" t="n">
-        <v>468.2012479213334</v>
+        <v>546.2981691479322</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.5167779442992</v>
+        <v>494.1602386187488</v>
       </c>
       <c r="AD4" t="n">
-        <v>342191.3108508618</v>
+        <v>399269.5180675085</v>
       </c>
       <c r="AE4" t="n">
-        <v>468201.2479213334</v>
+        <v>546298.1691479322</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.531863272160606e-06</v>
+        <v>3.779845754808463e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.93619791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>423516.7779442992</v>
+        <v>494160.2386187488</v>
       </c>
     </row>
   </sheetData>
